--- a/biology/Botanique/Lysimachia_maritima/Lysimachia_maritima.xlsx
+++ b/biology/Botanique/Lysimachia_maritima/Lysimachia_maritima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glaux, Glauce, Glaux maritime, Glauce maritime, Herbe au lait
 Lysimachia maritima, aussi appelée Glaux maritima, est une espèce de plantes à fleurs de la famille des Primulaceae ou des Myrsinaceae, selon les classifications. Elle pousse dans les zones humides de l'hémisphère nord, aussi bien en Eurasie qu'en Amérique du Nord. 
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plante basse, haute de 5 à 25 cm
 Tiges rampantes et rameuses
@@ -545,7 +559,9 @@
           <t>Vues de la plante</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Plante en touffe.
@@ -579,9 +595,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrite sous le nom Glaux maritima en 1753 par Carl von Linné dans son ouvrage Species plantarum, cette espèce a été renommée Lysimachia maritima en 2005[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrite sous le nom Glaux maritima en 1753 par Carl von Linné dans son ouvrage Species plantarum, cette espèce a été renommée Lysimachia maritima en 2005. 
 </t>
         </is>
       </c>
